--- a/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F674138-57EB-4D3B-A74E-AD7714FA39D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF03B1C-F9A1-4A4B-B8CB-C0BC8EB9B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="309">
   <si>
     <t>Name</t>
   </si>
@@ -798,9 +798,6 @@
     <t>https://opendata-mtdnrc.hub.arcgis.com/datasets/wade-pods-pous</t>
   </si>
   <si>
-    <t>MDNRC</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
@@ -808,10 +805,6 @@
   </si>
   <si>
     <t>http://dnrc.mt.gov/divisions/water/water-rights</t>
-  </si>
-  <si>
-    <t>MT_Water Allocation Adj, 
-MT_Water Allocation App</t>
   </si>
   <si>
     <t>Surface Ground Water,
@@ -822,9 +815,6 @@
 Appropriations</t>
   </si>
   <si>
-    <t>MT_Consumptive Use</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
@@ -939,9 +929,6 @@
     <t>NRIS_LINK</t>
   </si>
   <si>
-    <t>03/21/2021</t>
-  </si>
-  <si>
     <t>Unspecified</t>
   </si>
   <si>
@@ -967,6 +954,22 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>MTwr_M1
+MTwr_M2</t>
+  </si>
+  <si>
+    <t>MTwr_V1</t>
+  </si>
+  <si>
+    <t>MTwr_O1</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>POU + ObjectID</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1753,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,15 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2092,6 +2086,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2487,43 +2484,43 @@
         <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="110" t="s">
-        <v>284</v>
+      <c r="B9" s="107" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="107"/>
+      <c r="B10" s="104"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="110" t="s">
-        <v>303</v>
+      <c r="B14" s="107" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="110" t="s">
-        <v>300</v>
+      <c r="B15" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="110" t="s">
-        <v>280</v>
+      <c r="B16" s="107" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="110" t="s">
-        <v>278</v>
+      <c r="B17" s="107" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="110" t="s">
-        <v>261</v>
+      <c r="B18" s="107" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2536,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2624,7 +2621,7 @@
       <c r="I3" s="71">
         <v>11</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2641,8 +2638,8 @@
       <c r="D4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="98" t="s">
-        <v>256</v>
+      <c r="E4" s="115" t="s">
+        <v>304</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="59"/>
@@ -2652,7 +2649,7 @@
       <c r="I4" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2669,8 +2666,8 @@
       <c r="D5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="97" t="s">
-        <v>257</v>
+      <c r="E5" s="94" t="s">
+        <v>255</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="44"/>
@@ -2680,7 +2677,7 @@
       <c r="I5" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2697,8 +2694,8 @@
       <c r="D6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="94" t="s">
-        <v>253</v>
+      <c r="E6" s="91" t="s">
+        <v>252</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="44"/>
@@ -2708,7 +2705,7 @@
       <c r="I6" s="72">
         <v>0.5</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2725,8 +2722,8 @@
       <c r="D7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="94" t="s">
-        <v>253</v>
+      <c r="E7" s="91" t="s">
+        <v>252</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="44"/>
@@ -2736,7 +2733,7 @@
       <c r="I7" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="102" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2753,8 +2750,8 @@
       <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="94" t="s">
-        <v>253</v>
+      <c r="E8" s="91" t="s">
+        <v>252</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="44"/>
@@ -2764,7 +2761,7 @@
       <c r="I8" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="102" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2781,8 +2778,8 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>254</v>
+      <c r="E9" s="94" t="s">
+        <v>253</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="44"/>
@@ -2790,7 +2787,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="74"/>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2807,8 +2804,8 @@
       <c r="D10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="97" t="s">
-        <v>258</v>
+      <c r="E10" s="94" t="s">
+        <v>256</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="44"/>
@@ -2818,7 +2815,7 @@
       <c r="I10" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="102" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2835,8 +2832,8 @@
       <c r="D11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="99" t="s">
-        <v>255</v>
+      <c r="E11" s="96" t="s">
+        <v>254</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="44"/>
@@ -2846,7 +2843,7 @@
       <c r="I11" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="102" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2863,8 +2860,8 @@
       <c r="D12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="97" t="s">
-        <v>258</v>
+      <c r="E12" s="94" t="s">
+        <v>256</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="44"/>
@@ -2874,7 +2871,7 @@
       <c r="I12" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="102" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2901,7 +2898,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2980,7 +2977,7 @@
       <c r="I3" s="71">
         <v>16</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2998,7 +2995,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
@@ -3008,7 +3005,7 @@
       <c r="I4" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3036,7 +3033,7 @@
       <c r="I5" s="71">
         <v>1</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3064,7 +3061,7 @@
       <c r="I6" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3092,7 +3089,7 @@
       <c r="I7" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="102" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3120,7 +3117,7 @@
       <c r="I8" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="102" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3148,7 +3145,7 @@
       <c r="I9" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3176,7 +3173,7 @@
       <c r="I10" s="71">
         <v>10</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="102" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3204,7 +3201,7 @@
       <c r="I11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="102" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3222,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -3232,7 +3229,7 @@
       <c r="I12" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="102" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3250,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -3260,7 +3257,7 @@
       <c r="I13" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="102" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3278,7 +3275,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3363,7 +3360,7 @@
       <c r="I3" s="71">
         <v>1</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3380,8 +3377,8 @@
       <c r="D4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="98" t="s">
-        <v>252</v>
+      <c r="E4" s="95" t="s">
+        <v>306</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
@@ -3391,7 +3388,7 @@
       <c r="I4" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3408,8 +3405,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="100" t="s">
-        <v>267</v>
+      <c r="E5" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
@@ -3419,7 +3416,7 @@
       <c r="I5" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3436,8 +3433,8 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="97" t="s">
-        <v>266</v>
+      <c r="E6" s="94" t="s">
+        <v>263</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
@@ -3447,7 +3444,7 @@
       <c r="I6" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3464,8 +3461,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>270</v>
+      <c r="E7" s="97" t="s">
+        <v>267</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
@@ -3475,7 +3472,7 @@
       <c r="I7" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="102" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3492,8 +3489,8 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="97" t="s">
-        <v>269</v>
+      <c r="E8" s="94" t="s">
+        <v>266</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
@@ -3503,7 +3500,7 @@
       <c r="I8" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="102" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3520,8 +3517,8 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>272</v>
+      <c r="E9" s="94" t="s">
+        <v>269</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
@@ -3531,7 +3528,7 @@
       <c r="I9" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3548,8 +3545,8 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="97" t="s">
-        <v>273</v>
+      <c r="E10" s="94" t="s">
+        <v>270</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
@@ -3559,7 +3556,7 @@
       <c r="I10" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="102" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3576,8 +3573,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="100" t="s">
-        <v>268</v>
+      <c r="E11" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
@@ -3587,7 +3584,7 @@
       <c r="I11" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="102" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3604,8 +3601,8 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="97" t="s">
-        <v>271</v>
+      <c r="E12" s="94" t="s">
+        <v>268</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -3615,7 +3612,7 @@
       <c r="I12" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="102" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3739,7 +3736,7 @@
       <c r="I3" s="71">
         <v>34658</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3756,16 +3753,16 @@
       <c r="D4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="101" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="E4" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="75"/>
       <c r="I4" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3782,10 +3779,10 @@
       <c r="D5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="109" t="s">
+      <c r="E5" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="106" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="44" t="s">
@@ -3795,7 +3792,7 @@
       <c r="I5" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3812,10 +3809,10 @@
       <c r="D6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="109" t="s">
+      <c r="E6" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="106" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -3825,7 +3822,7 @@
       <c r="I6" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3845,7 +3842,7 @@
       <c r="E7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="106" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="44" t="s">
@@ -3855,7 +3852,7 @@
       <c r="I7" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="102" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3873,19 +3870,19 @@
         <v>38</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="102" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3902,20 +3899,20 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="95" t="s">
+      <c r="E9" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="92" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="75"/>
       <c r="I9" s="71">
         <v>17839</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3933,19 +3930,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>249</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="102" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3970,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4054,7 +4051,7 @@
       <c r="I3" s="71">
         <v>39035</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4069,8 +4066,8 @@
       <c r="D4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="113" t="s">
-        <v>265</v>
+      <c r="E4" s="110" t="s">
+        <v>262</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>38</v>
@@ -4082,7 +4079,7 @@
       <c r="I4" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4099,8 +4096,8 @@
       <c r="D5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>299</v>
+      <c r="E5" s="106" t="s">
+        <v>295</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4112,7 +4109,7 @@
       <c r="I5" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4129,8 +4126,8 @@
       <c r="D6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="109" t="s">
-        <v>299</v>
+      <c r="E6" s="106" t="s">
+        <v>295</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>38</v>
@@ -4142,7 +4139,7 @@
       <c r="I6" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4163,16 +4160,16 @@
         <v>38</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4190,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>38</v>
@@ -4202,7 +4199,7 @@
       <c r="I8" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="102" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4220,7 +4217,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>38</v>
@@ -4230,7 +4227,7 @@
       </c>
       <c r="H9" s="75"/>
       <c r="I9" s="71"/>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4248,7 +4245,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>38</v>
@@ -4260,7 +4257,7 @@
       <c r="I10" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="102" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4278,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>38</v>
@@ -4290,7 +4287,7 @@
       <c r="I11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="106" t="s">
+      <c r="J11" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4308,7 +4305,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>38</v>
@@ -4320,7 +4317,7 @@
       <c r="I12" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="106" t="s">
+      <c r="J12" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4338,10 +4335,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>55</v>
@@ -4350,7 +4347,7 @@
       <c r="I13" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="102" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4368,10 +4365,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>54</v>
@@ -4380,7 +4377,7 @@
       <c r="I14" s="71">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="102" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4398,7 +4395,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>38</v>
@@ -4410,7 +4407,7 @@
       <c r="I15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="102" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4428,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>38</v>
@@ -4440,7 +4437,7 @@
       <c r="I16" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="105" t="s">
+      <c r="J16" s="102" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4458,7 +4455,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -4470,7 +4467,7 @@
       <c r="I17" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="J17" s="111"/>
+      <c r="J17" s="108"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
@@ -4484,7 +4481,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -4496,7 +4493,7 @@
       <c r="I18" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="105" t="s">
+      <c r="J18" s="102" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4513,8 +4510,8 @@
       <c r="D19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="93" t="s">
-        <v>302</v>
+      <c r="E19" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
@@ -4526,25 +4523,25 @@
       <c r="I19" s="71">
         <v>3703994</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>38</v>
@@ -4552,12 +4549,12 @@
       <c r="G20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="96"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="112" t="s">
-        <v>285</v>
+      <c r="J20" s="109" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4573,8 +4570,8 @@
       <c r="D21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="109" t="s">
-        <v>299</v>
+      <c r="E21" s="106" t="s">
+        <v>295</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>38</v>
@@ -4586,7 +4583,7 @@
       <c r="I21" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="102" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4604,7 +4601,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>38</v>
@@ -4616,7 +4613,7 @@
       <c r="I22" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="105" t="s">
+      <c r="J22" s="102" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4634,7 +4631,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>38</v>
@@ -4663,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,7 +4714,7 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="101" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4743,7 +4740,7 @@
       <c r="I3" s="74">
         <v>50004</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4775,7 +4772,7 @@
       <c r="I4" s="74">
         <v>43</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4807,7 +4804,7 @@
       <c r="I5" s="74">
         <v>1</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4839,7 +4836,7 @@
       <c r="I6" s="74">
         <v>39035</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4871,7 +4868,7 @@
       <c r="I7" s="74">
         <v>63</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4903,7 +4900,7 @@
       <c r="I8" s="74">
         <v>371091</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="102" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4921,7 +4918,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="31"/>
@@ -4931,7 +4928,7 @@
       <c r="I9" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4949,7 +4946,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="31"/>
@@ -4959,7 +4956,7 @@
       <c r="I10" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="102" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4977,7 +4974,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="31"/>
@@ -4987,7 +4984,7 @@
       <c r="I11" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="102" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5005,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="31"/>
@@ -5015,7 +5012,7 @@
       <c r="I12" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="102" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5033,7 +5030,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="66"/>
@@ -5043,7 +5040,7 @@
       <c r="I13" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="102" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5061,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>38</v>
@@ -5075,7 +5072,7 @@
       <c r="I14" s="74">
         <v>5363</v>
       </c>
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="102" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5093,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>38</v>
@@ -5107,7 +5104,7 @@
       <c r="I15" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="106" t="s">
+      <c r="J15" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5125,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>38</v>
@@ -5139,7 +5136,7 @@
       <c r="I16" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5157,7 +5154,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -5171,7 +5168,7 @@
       <c r="I17" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="102" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5189,7 +5186,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -5203,7 +5200,7 @@
       <c r="I18" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="106" t="s">
+      <c r="J18" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5221,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
@@ -5235,7 +5232,7 @@
       <c r="I19" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="102" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5253,7 +5250,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>38</v>
@@ -5267,7 +5264,7 @@
       <c r="I20" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5285,7 +5282,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>38</v>
@@ -5299,7 +5296,7 @@
       <c r="I21" s="74">
         <v>5200</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="102" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5320,10 +5317,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H22" s="82" t="s">
         <v>38</v>
@@ -5331,7 +5328,7 @@
       <c r="I22" s="74">
         <v>1</v>
       </c>
-      <c r="J22" s="105" t="s">
+      <c r="J22" s="102" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5352,10 +5349,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H23" s="82" t="s">
         <v>38</v>
@@ -5363,7 +5360,7 @@
       <c r="I23" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="105" t="s">
+      <c r="J23" s="102" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5384,10 +5381,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>38</v>
@@ -5395,7 +5392,7 @@
       <c r="I24" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="105" t="s">
+      <c r="J24" s="102" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5416,10 +5413,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>38</v>
@@ -5427,7 +5424,7 @@
       <c r="I25" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="105" t="s">
+      <c r="J25" s="102" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5448,10 +5445,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H26" s="82" t="s">
         <v>38</v>
@@ -5459,7 +5456,7 @@
       <c r="I26" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="105" t="s">
+      <c r="J26" s="102" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5477,7 +5474,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>38</v>
@@ -5491,7 +5488,7 @@
       <c r="I27" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="105" t="s">
+      <c r="J27" s="102" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5512,10 +5509,10 @@
         <v>38</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H28" s="82" t="s">
         <v>38</v>
@@ -5523,7 +5520,7 @@
       <c r="I28" s="84">
         <v>44196</v>
       </c>
-      <c r="J28" s="105" t="s">
+      <c r="J28" s="102" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5544,10 +5541,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H29" s="82" t="s">
         <v>38</v>
@@ -5555,7 +5552,7 @@
       <c r="I29" s="84">
         <v>43831</v>
       </c>
-      <c r="J29" s="105" t="s">
+      <c r="J29" s="102" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5576,10 +5573,10 @@
         <v>38</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H30" s="82" t="s">
         <v>38</v>
@@ -5587,7 +5584,7 @@
       <c r="I30" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="105" t="s">
+      <c r="J30" s="102" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5608,10 +5605,10 @@
         <v>38</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H31" s="82" t="s">
         <v>38</v>
@@ -5619,7 +5616,7 @@
       <c r="I31" s="74">
         <v>0</v>
       </c>
-      <c r="J31" s="105" t="s">
+      <c r="J31" s="102" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5640,10 +5637,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H32" s="82" t="s">
         <v>38</v>
@@ -5651,7 +5648,7 @@
       <c r="I32" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="105" t="s">
+      <c r="J32" s="102" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5669,7 +5666,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>38</v>
@@ -5683,7 +5680,7 @@
       <c r="I33" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="106" t="s">
+      <c r="J33" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5701,7 +5698,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>38</v>
@@ -5715,7 +5712,7 @@
       <c r="I34" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="105" t="s">
+      <c r="J34" s="102" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5733,7 +5730,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>38</v>
@@ -5747,7 +5744,7 @@
       <c r="I35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="105" t="s">
+      <c r="J35" s="102" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5764,8 +5761,8 @@
       <c r="D36" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="108" t="s">
-        <v>298</v>
+      <c r="E36" s="105" t="s">
+        <v>307</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>38</v>
@@ -5779,7 +5776,7 @@
       <c r="I36" s="85">
         <v>43874</v>
       </c>
-      <c r="J36" s="105" t="s">
+      <c r="J36" s="102" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5800,10 +5797,10 @@
         <v>38</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H37" s="82" t="s">
         <v>38</v>
@@ -5811,7 +5808,7 @@
       <c r="I37" s="85">
         <v>33187</v>
       </c>
-      <c r="J37" s="106" t="s">
+      <c r="J37" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5839,7 +5836,7 @@
       </c>
       <c r="H38" s="82"/>
       <c r="I38" s="85"/>
-      <c r="J38" s="106"/>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
@@ -5855,7 +5852,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>38</v>
@@ -5869,7 +5866,7 @@
       <c r="I39" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="105" t="s">
+      <c r="J39" s="102" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5890,16 +5887,16 @@
         <v>38</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H40" s="79"/>
       <c r="I40" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="105" t="s">
+      <c r="J40" s="102" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5917,7 +5914,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>38</v>
@@ -5931,7 +5928,7 @@
       <c r="I41" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="105" t="s">
+      <c r="J41" s="102" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5949,7 +5946,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>38</v>
@@ -5963,13 +5960,13 @@
       <c r="I42" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="106" t="s">
+      <c r="J42" s="103" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5982,15 +5979,15 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="116" t="s">
-        <v>306</v>
-      </c>
-      <c r="J43" s="117" t="s">
-        <v>307</v>
+      <c r="G43" s="111"/>
+      <c r="H43" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="113" t="s">
+        <v>302</v>
+      </c>
+      <c r="J43" s="114" t="s">
+        <v>303</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6013,7 +6010,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>38</v>
@@ -6027,7 +6024,7 @@
       <c r="I44" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="105" t="s">
+      <c r="J44" s="102" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6045,7 +6042,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>38</v>
@@ -6059,7 +6056,7 @@
       <c r="I45" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="106" t="s">
+      <c r="J45" s="103" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6077,7 +6074,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>38</v>
@@ -6091,7 +6088,7 @@
       <c r="I46" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="105" t="s">
+      <c r="J46" s="102" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6109,7 +6106,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>38</v>
@@ -6123,7 +6120,7 @@
       <c r="I47" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="105" t="s">
+      <c r="J47" s="102" t="s">
         <v>211</v>
       </c>
     </row>

--- a/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF03B1C-F9A1-4A4B-B8CB-C0BC8EB9B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D6D30-93F3-416E-BEAF-D915078C7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="311">
   <si>
     <t>Name</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -970,6 +967,15 @@
   </si>
   <si>
     <t>POU + ObjectID</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>MTwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1759,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2089,6 +2095,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2460,36 +2469,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2497,30 +2506,30 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="107" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2578,10 +2587,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2622,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2639,7 +2648,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="59"/>
@@ -2650,7 +2659,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2667,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="44"/>
@@ -2678,7 +2687,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2695,7 +2704,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="44"/>
@@ -2706,7 +2715,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2723,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="44"/>
@@ -2734,7 +2743,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2751,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="44"/>
@@ -2759,10 +2768,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2779,7 +2788,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="44"/>
@@ -2788,7 +2797,7 @@
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2805,7 +2814,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="44"/>
@@ -2816,7 +2825,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2833,7 +2842,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="44"/>
@@ -2844,7 +2853,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2861,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="44"/>
@@ -2872,7 +2881,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2940,10 +2949,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2978,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2995,7 +3004,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
@@ -3006,7 +3015,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3034,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3062,7 +3071,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3090,7 +3099,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3118,7 +3127,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3146,7 +3155,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3174,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3202,7 +3211,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3219,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -3230,7 +3239,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3247,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -3258,7 +3267,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3317,10 +3326,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3361,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3378,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
@@ -3389,7 +3398,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3406,7 +3415,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
@@ -3417,7 +3426,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3434,7 +3443,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
@@ -3445,7 +3454,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3462,7 +3471,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
@@ -3473,7 +3482,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3490,7 +3499,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
@@ -3501,7 +3510,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3518,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
@@ -3529,7 +3538,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.3">
@@ -3546,7 +3555,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
@@ -3557,7 +3566,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3574,7 +3583,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
@@ -3585,7 +3594,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3602,7 +3611,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -3613,7 +3622,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3701,10 +3710,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3737,7 +3746,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3754,7 +3763,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="99"/>
       <c r="G4" s="100"/>
@@ -3763,7 +3772,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3780,7 +3789,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="106" t="s">
         <v>38</v>
@@ -3793,7 +3802,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3810,7 +3819,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="106" t="s">
         <v>38</v>
@@ -3823,7 +3832,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3853,7 +3862,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3870,20 +3879,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3900,7 +3909,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="90" t="s">
         <v>38</v>
@@ -3913,7 +3922,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3930,20 +3939,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="71" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3967,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4010,10 +4019,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4052,7 +4061,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4067,7 +4076,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>38</v>
@@ -4080,7 +4089,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4097,7 +4106,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4110,7 +4119,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4127,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>38</v>
@@ -4140,7 +4149,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4160,17 +4169,17 @@
         <v>38</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>284</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>285</v>
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="76" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4187,7 +4196,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>38</v>
@@ -4200,7 +4209,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4217,7 +4226,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>38</v>
@@ -4228,7 +4237,7 @@
       <c r="H9" s="75"/>
       <c r="I9" s="71"/>
       <c r="J9" s="102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4245,7 +4254,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>38</v>
@@ -4258,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4275,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>38</v>
@@ -4288,7 +4297,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4305,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>38</v>
@@ -4318,7 +4327,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4335,10 +4344,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>55</v>
@@ -4348,7 +4357,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4365,10 +4374,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>54</v>
@@ -4378,7 +4387,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4395,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>38</v>
@@ -4408,7 +4417,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4425,7 +4434,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>38</v>
@@ -4438,12 +4447,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4455,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -4465,7 +4474,7 @@
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J17" s="108"/>
     </row>
@@ -4481,7 +4490,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -4494,7 +4503,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4511,7 +4520,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
@@ -4524,7 +4533,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
@@ -4541,7 +4550,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>38</v>
@@ -4554,7 +4563,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4571,7 +4580,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>38</v>
@@ -4584,7 +4593,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4601,7 +4610,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>38</v>
@@ -4614,7 +4623,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4631,7 +4640,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>38</v>
@@ -4644,7 +4653,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4658,10 +4667,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4703,10 +4712,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4741,7 +4750,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4773,7 +4782,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4805,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4837,7 +4846,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4869,7 +4878,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4901,15 +4910,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>38</v>
@@ -4917,24 +4926,18 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>280</v>
+      <c r="E9" s="116" t="s">
+        <v>309</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="102" t="s">
-        <v>190</v>
-      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>67</v>
@@ -4945,8 +4948,8 @@
       <c r="D10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>306</v>
+      <c r="E10" s="63" t="s">
+        <v>279</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="31"/>
@@ -4957,12 +4960,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>67</v>
@@ -4973,8 +4976,8 @@
       <c r="D11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>279</v>
+      <c r="E11" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="31"/>
@@ -4985,12 +4988,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>67</v>
@@ -5001,8 +5004,8 @@
       <c r="D12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="63" t="s">
-        <v>305</v>
+      <c r="E12" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="31"/>
@@ -5013,84 +5016,80 @@
         <v>38</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="74">
-        <v>5363</v>
+      <c r="I14" s="83" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="102" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>38</v>
@@ -5101,16 +5100,16 @@
       <c r="H15" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="103" t="s">
-        <v>160</v>
+      <c r="I15" s="74">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="102" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>68</v>
@@ -5122,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>38</v>
@@ -5137,24 +5136,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -5166,27 +5165,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="102" t="s">
-        <v>231</v>
+        <v>133</v>
+      </c>
+      <c r="J17" s="103" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -5198,18 +5197,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="103" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J18" s="102" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>18</v>
@@ -5218,7 +5217,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
@@ -5230,18 +5229,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="102" t="s">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="103" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>18</v>
@@ -5250,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>38</v>
@@ -5261,28 +5260,28 @@
       <c r="H20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="103" t="s">
-        <v>160</v>
+      <c r="I20" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="102" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>38</v>
@@ -5293,117 +5292,117 @@
       <c r="H21" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="74">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="102" t="s">
-        <v>196</v>
+      <c r="I21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="103" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
-        <v>244</v>
+      <c r="A22" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>273</v>
+        <v>251</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="H22" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="74">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>86</v>
+      <c r="A23" s="68" t="s">
+        <v>243</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>272</v>
       </c>
       <c r="H23" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="74" t="s">
-        <v>136</v>
+      <c r="I23" s="74">
+        <v>1</v>
       </c>
       <c r="J23" s="102" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="102" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -5413,120 +5412,120 @@
         <v>38</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H26" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>271</v>
       </c>
       <c r="H27" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="83" t="s">
-        <v>38</v>
+      <c r="I27" s="74" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="102" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="H28" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="84">
-        <v>44196</v>
+      <c r="I28" s="83" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>106</v>
@@ -5541,7 +5540,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>290</v>
@@ -5550,155 +5549,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="84">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="H30" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="74" t="s">
-        <v>133</v>
+      <c r="I30" s="84">
+        <v>43831</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="68" t="s">
-        <v>245</v>
+      <c r="A31" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="67" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H31" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="74">
+      <c r="I31" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="74">
         <v>0</v>
       </c>
-      <c r="J31" s="102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="H32" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="83" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="102" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>18</v>
+      <c r="C33" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>252</v>
+      <c r="E33" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>38</v>
+        <v>283</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="H33" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="103" t="s">
-        <v>160</v>
+      <c r="I33" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="102" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>38</v>
@@ -5712,13 +5711,13 @@
       <c r="I34" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="102" t="s">
-        <v>232</v>
+      <c r="J34" s="103" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>15</v>
@@ -5730,7 +5729,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>38</v>
@@ -5745,79 +5744,79 @@
         <v>133</v>
       </c>
       <c r="J35" s="102" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="105" t="s">
-        <v>307</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H36" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="85">
-        <v>43874</v>
+      <c r="I36" s="74" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="102" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="85">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B38" s="35" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="H37" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="85">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>247</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>18</v>
@@ -5825,54 +5824,54 @@
       <c r="D38" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="85">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="23">
         <v>0</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="82"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="103"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>252</v>
-      </c>
       <c r="F39" s="23" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="102" t="s">
-        <v>207</v>
-      </c>
+      <c r="H39" s="82"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="103"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>69</v>
@@ -5884,69 +5883,69 @@
         <v>38</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" s="79"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="83" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="74" t="s">
-        <v>133</v>
+        <v>275</v>
+      </c>
+      <c r="H41" s="79"/>
+      <c r="I41" s="83" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="102" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>38</v>
@@ -5957,92 +5956,92 @@
       <c r="H42" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="103" t="s">
-        <v>160</v>
+      <c r="I42" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="102" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="113" t="s">
+      <c r="J44" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="J43" s="114" t="s">
-        <v>303</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="102" t="s">
-        <v>209</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>38</v>
@@ -6053,28 +6052,28 @@
       <c r="H45" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="103" t="s">
-        <v>160</v>
+      <c r="I45" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="102" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>38</v>
@@ -6086,47 +6085,79 @@
         <v>38</v>
       </c>
       <c r="I46" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="102" t="s">
-        <v>210</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="103" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B48" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C48" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="74" t="s">
+      <c r="D48" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="102" t="s">
-        <v>211</v>
+      <c r="J48" s="102" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D6D30-93F3-416E-BEAF-D915078C7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092C905-A9F5-4A95-B86F-9E37486BA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -796,22 +796,12 @@
   </si>
   <si>
     <t>(blank)</t>
-  </si>
-  <si>
-    <t>Water rights that were established prior to July 1,1973 are administered by the Adjudication Bureau. Water rights that were established from July 1, 1973 through the present are administered by the New Appropriations Program.</t>
-  </si>
-  <si>
-    <t>http://dnrc.mt.gov/divisions/water/water-rights</t>
   </si>
   <si>
     <t>Surface Ground Water,
 Surface Ground Water</t>
   </si>
   <si>
-    <t>Adjudication, 
-Appropriations</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
@@ -976,6 +966,18 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>The Montana Department of Natural Resources and Conservation (DNRC) provides this product for informational purposes only. Data contained herein may not be suitable for legal, engineering or survey purposes. DNRC makes no representations or warranties of any kind with respect to the accuracy or completeness of this data and assumes no responsibility of suitable use for any particular purpose. By any user’s reliance on, dissemination of or reference to this data in whole or in part (use), the user has accepted all limitations of this product, including user’s acknowledgement that all spatial data products are dynamic and may change without prior notice and any use is subject to that understanding. User acknowledges that Montana Department of Natural Resources and Conservation is not liable for any damages incurred as a result of errors in this data and user acknowledges use at user’s own risk and discretion</t>
+  </si>
+  <si>
+    <t>Montana Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://dnrc.mt.gov/Water-Resources/Water-Rights/Understanding-Water-Rights/</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1761,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1875,9 +1877,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1981,13 +1980,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2033,16 +2026,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -2070,11 +2060,7 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,6 +2084,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2463,12 +2452,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>236</v>
       </c>
       <c r="B1" t="s">
@@ -2476,60 +2465,60 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="107" t="s">
-        <v>280</v>
+      <c r="B9" s="102" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="107" t="s">
-        <v>298</v>
+      <c r="B14" s="102" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="107" t="s">
-        <v>295</v>
+      <c r="B15" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
-        <v>276</v>
+      <c r="B16" s="102" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="107" t="s">
-        <v>274</v>
+      <c r="B17" s="102" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
-        <v>257</v>
+      <c r="B18" s="102" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2544,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2564,32 +2553,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2615,50 +2604,50 @@
       <c r="D3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="71">
+      <c r="E3" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="70">
         <v>11</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="115" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="C4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2675,18 +2664,18 @@
       <c r="D5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="71" t="s">
+      <c r="E5" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2703,18 +2692,18 @@
       <c r="D6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="72">
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="71">
         <v>0.5</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="98" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2731,18 +2720,18 @@
       <c r="D7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="102" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="98" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2759,18 +2748,18 @@
       <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="73" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="98" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2787,20 +2776,20 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="102" t="s">
+      <c r="E9" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="98" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
@@ -2813,22 +2802,22 @@
       <c r="D10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="71" t="s">
+      <c r="E10" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="98" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -2841,22 +2830,22 @@
       <c r="D11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="E11" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="98" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
@@ -2869,33 +2858,33 @@
       <c r="D12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="71" t="s">
+      <c r="E12" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="98" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="86"/>
+      <c r="E16" s="83"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="86"/>
+      <c r="E17" s="83"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{CFA857E9-2F70-4C25-8BFC-F469B28B0801}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{0355164A-3D59-4A88-93BB-CB5C55230225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2980,13 +2969,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="71">
+      <c r="H3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="70">
         <v>16</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3003,18 +2992,18 @@
       <c r="D4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="87" t="s">
-        <v>304</v>
+      <c r="E4" s="84" t="s">
+        <v>301</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3031,18 +3020,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="85">
         <v>1</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="71">
+      <c r="H5" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="70">
         <v>1</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3059,18 +3048,18 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="85" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="71" t="s">
+      <c r="H6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="98" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3087,18 +3076,18 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="85" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="71" t="s">
+      <c r="H7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="98" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3115,18 +3104,18 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="85" t="s">
         <v>113</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="98" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3143,18 +3132,18 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="85" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="98" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3171,18 +3160,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="85">
         <v>10</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="71">
+      <c r="H10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="70">
         <v>10</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="98" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3199,18 +3188,18 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="85" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="98" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3227,18 +3216,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>256</v>
+      <c r="E12" s="85" t="s">
+        <v>253</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="98" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3255,18 +3244,18 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="88" t="s">
-        <v>256</v>
+      <c r="E13" s="85" t="s">
+        <v>253</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="71" t="s">
+      <c r="H13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="102" t="s">
+      <c r="J13" s="98" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3363,13 +3352,13 @@
       <c r="G3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="71">
+      <c r="H3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="70">
         <v>1</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3386,18 +3375,18 @@
       <c r="D4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="95" t="s">
-        <v>305</v>
+      <c r="E4" s="92" t="s">
+        <v>302</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3414,18 +3403,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="97" t="s">
-        <v>263</v>
+      <c r="E5" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3442,18 +3431,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="94" t="s">
-        <v>262</v>
+      <c r="E6" s="91" t="s">
+        <v>259</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="71" t="s">
+      <c r="H6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="98" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3470,18 +3459,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="97" t="s">
-        <v>266</v>
+      <c r="E7" s="93" t="s">
+        <v>263</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="71" t="s">
+      <c r="H7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="98" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3498,18 +3487,18 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="94" t="s">
-        <v>265</v>
+      <c r="E8" s="91" t="s">
+        <v>262</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="98" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3526,18 +3515,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="94" t="s">
-        <v>268</v>
+      <c r="E9" s="91" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="98" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3554,18 +3543,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="94" t="s">
-        <v>269</v>
+      <c r="E10" s="91" t="s">
+        <v>266</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="71" t="s">
+      <c r="H10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="98" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3582,18 +3571,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>264</v>
+      <c r="E11" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="98" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3610,18 +3599,18 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="94" t="s">
-        <v>267</v>
+      <c r="E12" s="91" t="s">
+        <v>264</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="98" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3687,32 +3676,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3740,38 +3729,38 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="71">
+      <c r="G3" s="61"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70">
         <v>34658</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="98" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="71" t="s">
+      <c r="C4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3788,20 +3777,20 @@
       <c r="D5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="102" t="s">
+      <c r="F5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="98" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3818,20 +3807,20 @@
       <c r="D6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="102" t="s">
+      <c r="F6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="98" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3848,20 +3837,20 @@
       <c r="D7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="71" t="s">
+      <c r="F7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="98" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3879,19 +3868,19 @@
         <v>38</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="98" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3908,20 +3897,20 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="71">
+      <c r="E9" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70">
         <v>17839</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="98" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3939,19 +3928,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="71" t="s">
+      <c r="G10" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="98" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3996,32 +3985,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4056,39 +4045,39 @@
       <c r="G3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="71">
+      <c r="H3" s="69"/>
+      <c r="I3" s="70">
         <v>39035</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="71" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4105,20 +4094,20 @@
       <c r="D5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="71" t="s">
+      <c r="E5" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4135,8 +4124,8 @@
       <c r="D6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>294</v>
+      <c r="E6" s="42" t="s">
+        <v>291</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>38</v>
@@ -4144,11 +4133,11 @@
       <c r="G6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="71" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="98" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4169,16 +4158,16 @@
         <v>38</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4195,8 +4184,8 @@
       <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>296</v>
+      <c r="E8" s="40" t="s">
+        <v>293</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>38</v>
@@ -4204,11 +4193,11 @@
       <c r="G8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="74"/>
+      <c r="I8" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="98" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4234,9 +4223,9 @@
       <c r="G9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="98" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4262,11 +4251,11 @@
       <c r="G10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="98" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4292,11 +4281,11 @@
       <c r="G11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="103" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4322,11 +4311,11 @@
       <c r="G12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="103" t="s">
+      <c r="H12" s="69"/>
+      <c r="I12" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4344,19 +4333,19 @@
         <v>38</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="71" t="s">
+      <c r="H13" s="76"/>
+      <c r="I13" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="102" t="s">
+      <c r="J13" s="98" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4374,19 +4363,19 @@
         <v>38</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="71">
+      <c r="H14" s="76"/>
+      <c r="I14" s="70">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="102" t="s">
+      <c r="J14" s="98" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4412,11 +4401,11 @@
       <c r="G15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="102" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="98" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4442,11 +4431,11 @@
       <c r="G16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="69"/>
+      <c r="I16" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="98" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4463,8 +4452,8 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>299</v>
+      <c r="E17" s="40" t="s">
+        <v>296</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -4472,11 +4461,11 @@
       <c r="G17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81" t="s">
+      <c r="H17" s="77"/>
+      <c r="I17" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="108"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
@@ -4490,7 +4479,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -4498,11 +4487,11 @@
       <c r="G18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="98" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4520,23 +4509,23 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="71">
+      <c r="G19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="70">
         <v>3703994</v>
       </c>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="98" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>56</v>
       </c>
@@ -4552,18 +4541,18 @@
       <c r="E20" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="88" t="s">
+      <c r="F20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="90"/>
+      <c r="I20" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="109" t="s">
-        <v>281</v>
+      <c r="J20" s="103" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4579,8 +4568,8 @@
       <c r="D21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="106" t="s">
-        <v>294</v>
+      <c r="E21" s="42" t="s">
+        <v>291</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>38</v>
@@ -4588,11 +4577,11 @@
       <c r="G21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="69"/>
+      <c r="I21" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="98" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4610,19 +4599,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="98" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4648,11 +4637,11 @@
       <c r="G23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="78" t="s">
+      <c r="H23" s="69"/>
+      <c r="I23" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="75" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4669,7 +4658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -4689,32 +4678,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4723,7 +4712,7 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="97" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4743,13 +4732,13 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="74">
+      <c r="H3" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="73">
         <v>50004</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4775,13 +4764,13 @@
       <c r="G4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="74">
+      <c r="H4" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="73">
         <v>43</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4807,13 +4796,13 @@
       <c r="G5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="74">
+      <c r="H5" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="73">
         <v>1</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4839,13 +4828,13 @@
       <c r="G6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="74">
+      <c r="H6" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="73">
         <v>39035</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4871,13 +4860,13 @@
       <c r="G7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="74">
+      <c r="H7" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="73">
         <v>63</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="98" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4903,19 +4892,19 @@
       <c r="G8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="74">
+      <c r="H8" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="73">
         <v>371091</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="98" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>34</v>
@@ -4926,14 +4915,14 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="116" t="s">
-        <v>309</v>
+      <c r="E9" s="110" t="s">
+        <v>306</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="102"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
@@ -4948,18 +4937,18 @@
       <c r="D10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>279</v>
+      <c r="E10" s="62" t="s">
+        <v>276</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="98" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4976,18 +4965,18 @@
       <c r="D11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>305</v>
+      <c r="E11" s="63" t="s">
+        <v>302</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="102" t="s">
+      <c r="H11" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="98" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5004,18 +4993,18 @@
       <c r="D12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>278</v>
+      <c r="E12" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="102" t="s">
+      <c r="H12" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="98" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5032,46 +5021,46 @@
       <c r="D13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="63" t="s">
-        <v>304</v>
+      <c r="E13" s="62" t="s">
+        <v>301</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="102" t="s">
+      <c r="H13" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="98" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="102" t="s">
+      <c r="C14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="98" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5097,13 +5086,13 @@
       <c r="G15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="74">
+      <c r="H15" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="73">
         <v>5363</v>
       </c>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="98" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5129,13 +5118,13 @@
       <c r="G16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="74" t="s">
+      <c r="H16" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5161,13 +5150,13 @@
       <c r="G17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5193,13 +5182,13 @@
       <c r="G18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="74" t="s">
+      <c r="H18" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="98" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5225,13 +5214,13 @@
       <c r="G19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="74" t="s">
+      <c r="H19" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5257,13 +5246,13 @@
       <c r="G20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="74" t="s">
+      <c r="H20" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="98" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5289,13 +5278,13 @@
       <c r="G21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="103" t="s">
+      <c r="H21" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5321,18 +5310,18 @@
       <c r="G22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="74">
+      <c r="H22" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="73">
         <v>5200</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="98" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>243</v>
       </c>
       <c r="B23" s="35" t="s">
@@ -5347,19 +5336,19 @@
       <c r="E23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="H23" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="74">
+      <c r="F23" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="73">
         <v>1</v>
       </c>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="98" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5379,19 +5368,19 @@
       <c r="E24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="74" t="s">
+      <c r="F24" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="102" t="s">
+      <c r="J24" s="98" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5411,19 +5400,19 @@
       <c r="E25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="74" t="s">
+      <c r="F25" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="102" t="s">
+      <c r="J25" s="98" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5443,19 +5432,19 @@
       <c r="E26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="74" t="s">
+      <c r="F26" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="102" t="s">
+      <c r="J26" s="98" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5466,7 +5455,7 @@
       <c r="B27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="38" t="s">
@@ -5475,19 +5464,19 @@
       <c r="E27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="74" t="s">
+      <c r="F27" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="102" t="s">
+      <c r="J27" s="98" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5513,13 +5502,13 @@
       <c r="G28" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="102" t="s">
+      <c r="H28" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="98" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5540,18 +5529,18 @@
         <v>38</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="H29" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="84">
+        <v>287</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="81">
         <v>44196</v>
       </c>
-      <c r="J29" s="102" t="s">
+      <c r="J29" s="98" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5572,18 +5561,18 @@
         <v>38</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="H30" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="84">
+        <v>286</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="81">
         <v>43831</v>
       </c>
-      <c r="J30" s="102" t="s">
+      <c r="J30" s="98" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5600,27 +5589,27 @@
       <c r="D31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="102" t="s">
+      <c r="J31" s="98" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>244</v>
       </c>
       <c r="B32" s="35" t="s">
@@ -5636,18 +5625,18 @@
         <v>38</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="H32" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="74">
+        <v>280</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="73">
         <v>0</v>
       </c>
-      <c r="J32" s="102" t="s">
+      <c r="J32" s="98" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5658,28 +5647,28 @@
       <c r="B33" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="66" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="H33" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="98" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5705,13 +5694,13 @@
       <c r="G34" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="74" t="s">
+      <c r="H34" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="103" t="s">
+      <c r="J34" s="99" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5737,13 +5726,13 @@
       <c r="G35" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="74" t="s">
+      <c r="H35" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="102" t="s">
+      <c r="J35" s="98" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5769,13 +5758,13 @@
       <c r="G36" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="74" t="s">
+      <c r="H36" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="102" t="s">
+      <c r="J36" s="98" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5786,28 +5775,28 @@
       <c r="B37" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="105" t="s">
-        <v>306</v>
+      <c r="E37" s="101" t="s">
+        <v>303</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="85">
+      <c r="G37" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="82">
         <v>43874</v>
       </c>
-      <c r="J37" s="102" t="s">
+      <c r="J37" s="98" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5828,23 +5817,23 @@
         <v>38</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="H38" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="85">
+        <v>290</v>
+      </c>
+      <c r="H38" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="82">
         <v>33187</v>
       </c>
-      <c r="J38" s="103" t="s">
+      <c r="J38" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="67" t="s">
         <v>245</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -5865,9 +5854,9 @@
       <c r="G39" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="82"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="103"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="99"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
@@ -5891,13 +5880,13 @@
       <c r="G40" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="102" t="s">
+      <c r="H40" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="98" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5918,16 +5907,16 @@
         <v>38</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" s="76"/>
+      <c r="I41" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="98" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5953,13 +5942,13 @@
       <c r="G42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="74" t="s">
+      <c r="H42" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="102" t="s">
+      <c r="J42" s="98" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5985,19 +5974,19 @@
       <c r="G43" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="103" t="s">
+      <c r="H43" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6010,15 +5999,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="113" t="s">
-        <v>301</v>
-      </c>
-      <c r="J44" s="114" t="s">
-        <v>302</v>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" s="108" t="s">
+        <v>299</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6049,13 +6038,13 @@
       <c r="G45" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="102" t="s">
+      <c r="H45" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="98" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6081,19 +6070,19 @@
       <c r="G46" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="74" t="s">
+      <c r="H46" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="103" t="s">
+      <c r="J46" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>105</v>
@@ -6113,13 +6102,13 @@
       <c r="G47" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="74" t="s">
+      <c r="H47" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="102" t="s">
+      <c r="J47" s="98" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6145,13 +6134,13 @@
       <c r="G48" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="74" t="s">
+      <c r="H48" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="102" t="s">
+      <c r="J48" s="98" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6176,32 +6165,32 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092C905-A9F5-4A95-B86F-9E37486BA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381728F-2226-4ECF-A986-9A575719FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -798,10 +798,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Surface Ground Water,
-Surface Ground Water</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
@@ -943,10 +939,6 @@
     <t>WSWC defined owner tag.</t>
   </si>
   <si>
-    <t>MTwr_M1
-MTwr_M2</t>
-  </si>
-  <si>
     <t>MTwr_V1</t>
   </si>
   <si>
@@ -978,6 +970,12 @@
   </si>
   <si>
     <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>MTwr_M1</t>
+  </si>
+  <si>
+    <t>Surface Ground Water</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1759,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2019,9 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2482,43 +2477,43 @@
         <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="102" t="s">
-        <v>277</v>
+      <c r="B9" s="101" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
+      <c r="B10" s="99"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>295</v>
+      <c r="B14" s="101" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="102" t="s">
-        <v>292</v>
+      <c r="B15" s="101" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="102" t="s">
-        <v>273</v>
+      <c r="B16" s="101" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="102" t="s">
-        <v>271</v>
+      <c r="B17" s="101" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="102" t="s">
-        <v>254</v>
+      <c r="B18" s="101" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2529,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,11 +2614,11 @@
       <c r="I3" s="70">
         <v>11</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
@@ -2636,8 +2631,8 @@
       <c r="D4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="109" t="s">
-        <v>300</v>
+      <c r="E4" s="108" t="s">
+        <v>310</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -2647,11 +2642,11 @@
       <c r="I4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
@@ -2664,8 +2659,8 @@
       <c r="D5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="91" t="s">
-        <v>252</v>
+      <c r="E5" s="40" t="s">
+        <v>311</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="43"/>
@@ -2675,7 +2670,7 @@
       <c r="I5" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2692,7 +2687,7 @@
       <c r="D6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="42" t="s">
         <v>251</v>
       </c>
       <c r="F6" s="42"/>
@@ -2703,7 +2698,7 @@
       <c r="I6" s="71">
         <v>0.5</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="97" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2720,7 +2715,7 @@
       <c r="D7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="42" t="s">
         <v>251</v>
       </c>
       <c r="F7" s="42"/>
@@ -2731,7 +2726,7 @@
       <c r="I7" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2748,7 +2743,7 @@
       <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="42" t="s">
         <v>251</v>
       </c>
       <c r="F8" s="42"/>
@@ -2759,7 +2754,7 @@
       <c r="I8" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="97" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2777,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="43"/>
@@ -2785,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="73"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2803,7 +2798,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="43"/>
@@ -2813,7 +2808,7 @@
       <c r="I10" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="97" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2830,8 +2825,8 @@
       <c r="D11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>310</v>
+      <c r="E11" s="110" t="s">
+        <v>308</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="43"/>
@@ -2841,7 +2836,7 @@
       <c r="I11" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="97" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2859,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="43"/>
@@ -2869,7 +2864,7 @@
       <c r="I12" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="97" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2884,7 +2879,7 @@
     <sortCondition ref="A18:A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{0355164A-3D59-4A88-93BB-CB5C55230225}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{13834219-AD78-4129-AF2E-3F292B38E1C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2975,7 +2970,7 @@
       <c r="I3" s="70">
         <v>16</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2993,7 +2988,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
@@ -3003,7 +2998,7 @@
       <c r="I4" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3031,7 +3026,7 @@
       <c r="I5" s="70">
         <v>1</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3059,7 +3054,7 @@
       <c r="I6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="97" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3087,7 +3082,7 @@
       <c r="I7" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3115,7 +3110,7 @@
       <c r="I8" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="97" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3143,7 +3138,7 @@
       <c r="I9" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3171,7 +3166,7 @@
       <c r="I10" s="70">
         <v>10</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="97" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3199,7 +3194,7 @@
       <c r="I11" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="97" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3217,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -3227,7 +3222,7 @@
       <c r="I12" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="97" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3245,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -3255,7 +3250,7 @@
       <c r="I13" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="97" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3358,7 +3353,7 @@
       <c r="I3" s="70">
         <v>1</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3375,8 +3370,8 @@
       <c r="D4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="92" t="s">
-        <v>302</v>
+      <c r="E4" s="91" t="s">
+        <v>300</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
@@ -3386,7 +3381,7 @@
       <c r="I4" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3403,8 +3398,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="93" t="s">
-        <v>260</v>
+      <c r="E5" s="92" t="s">
+        <v>259</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
@@ -3414,7 +3409,7 @@
       <c r="I5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3431,8 +3426,8 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="91" t="s">
-        <v>259</v>
+      <c r="E6" s="90" t="s">
+        <v>258</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
@@ -3442,7 +3437,7 @@
       <c r="I6" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="97" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3459,8 +3454,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="93" t="s">
-        <v>263</v>
+      <c r="E7" s="92" t="s">
+        <v>262</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
@@ -3470,7 +3465,7 @@
       <c r="I7" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3487,8 +3482,8 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="91" t="s">
-        <v>262</v>
+      <c r="E8" s="90" t="s">
+        <v>261</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
@@ -3498,7 +3493,7 @@
       <c r="I8" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="97" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3515,8 +3510,8 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>265</v>
+      <c r="E9" s="90" t="s">
+        <v>264</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
@@ -3526,7 +3521,7 @@
       <c r="I9" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3543,8 +3538,8 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>266</v>
+      <c r="E10" s="90" t="s">
+        <v>265</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
@@ -3554,7 +3549,7 @@
       <c r="I10" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="97" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3571,8 +3566,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="93" t="s">
-        <v>261</v>
+      <c r="E11" s="92" t="s">
+        <v>260</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
@@ -3582,7 +3577,7 @@
       <c r="I11" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="97" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3599,8 +3594,8 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="91" t="s">
-        <v>264</v>
+      <c r="E12" s="90" t="s">
+        <v>263</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -3610,7 +3605,7 @@
       <c r="I12" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="97" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3734,7 +3729,7 @@
       <c r="I3" s="70">
         <v>34658</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3751,16 +3746,16 @@
       <c r="D4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
+      <c r="E4" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="69"/>
       <c r="I4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3790,7 +3785,7 @@
       <c r="I5" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3820,7 +3815,7 @@
       <c r="I6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="97" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3850,7 +3845,7 @@
       <c r="I7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3868,19 +3863,19 @@
         <v>38</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="97" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3898,19 +3893,19 @@
         <v>38</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="88" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="69"/>
       <c r="I9" s="70">
         <v>17839</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3928,19 +3923,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>248</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" s="74"/>
       <c r="I10" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="97" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4049,7 +4044,7 @@
       <c r="I3" s="70">
         <v>39035</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4064,8 +4059,8 @@
       <c r="D4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="104" t="s">
-        <v>258</v>
+      <c r="E4" s="103" t="s">
+        <v>257</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>38</v>
@@ -4077,7 +4072,7 @@
       <c r="I4" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4095,7 +4090,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>38</v>
@@ -4107,7 +4102,7 @@
       <c r="I5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4125,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>38</v>
@@ -4137,7 +4132,7 @@
       <c r="I6" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="97" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4158,16 +4153,16 @@
         <v>38</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>281</v>
       </c>
       <c r="H7" s="69"/>
       <c r="I7" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4185,7 +4180,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>38</v>
@@ -4197,7 +4192,7 @@
       <c r="I8" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="97" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4225,7 +4220,7 @@
       </c>
       <c r="H9" s="69"/>
       <c r="I9" s="70"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4255,7 +4250,7 @@
       <c r="I10" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="97" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4285,7 +4280,7 @@
       <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4315,7 +4310,7 @@
       <c r="I12" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4333,10 +4328,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>55</v>
@@ -4345,7 +4340,7 @@
       <c r="I13" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="97" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4363,10 +4358,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>54</v>
@@ -4375,7 +4370,7 @@
       <c r="I14" s="70">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="97" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4405,7 +4400,7 @@
       <c r="I15" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="98" t="s">
+      <c r="J15" s="97" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4435,7 +4430,7 @@
       <c r="I16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="98" t="s">
+      <c r="J16" s="97" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4453,7 +4448,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>38</v>
@@ -4479,7 +4474,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -4491,7 +4486,7 @@
       <c r="I18" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="97" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4509,7 +4504,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>38</v>
@@ -4521,7 +4516,7 @@
       <c r="I19" s="70">
         <v>3703994</v>
       </c>
-      <c r="J19" s="98" t="s">
+      <c r="J19" s="97" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4547,12 +4542,12 @@
       <c r="G20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="90"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="103" t="s">
-        <v>278</v>
+      <c r="J20" s="102" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4569,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>38</v>
@@ -4581,7 +4576,7 @@
       <c r="I21" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="98" t="s">
+      <c r="J21" s="97" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4599,7 +4594,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>38</v>
@@ -4611,7 +4606,7 @@
       <c r="I22" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="98" t="s">
+      <c r="J22" s="97" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4712,7 +4707,7 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="96" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4738,7 +4733,7 @@
       <c r="I3" s="73">
         <v>50004</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4770,7 +4765,7 @@
       <c r="I4" s="73">
         <v>43</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4802,7 +4797,7 @@
       <c r="I5" s="73">
         <v>1</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4834,7 +4829,7 @@
       <c r="I6" s="73">
         <v>39035</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4866,7 +4861,7 @@
       <c r="I7" s="73">
         <v>63</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4898,13 +4893,13 @@
       <c r="I8" s="73">
         <v>371091</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="97" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>34</v>
@@ -4915,14 +4910,14 @@
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="110" t="s">
-        <v>306</v>
+      <c r="E9" s="109" t="s">
+        <v>304</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="31"/>
       <c r="H9" s="79"/>
       <c r="I9" s="80"/>
-      <c r="J9" s="98"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
@@ -4938,7 +4933,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="31"/>
@@ -4948,7 +4943,7 @@
       <c r="I10" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="97" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4966,7 +4961,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="31"/>
@@ -4976,7 +4971,7 @@
       <c r="I11" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="97" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4994,7 +4989,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="31"/>
@@ -5004,7 +4999,7 @@
       <c r="I12" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="97" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5022,7 +5017,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="31"/>
@@ -5032,7 +5027,7 @@
       <c r="I13" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="97" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5050,7 +5045,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="65"/>
@@ -5060,7 +5055,7 @@
       <c r="I14" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="97" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5092,7 +5087,7 @@
       <c r="I15" s="73">
         <v>5363</v>
       </c>
-      <c r="J15" s="98" t="s">
+      <c r="J15" s="97" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5124,7 +5119,7 @@
       <c r="I16" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5156,7 +5151,7 @@
       <c r="I17" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="99" t="s">
+      <c r="J17" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5188,7 +5183,7 @@
       <c r="I18" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="97" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5220,7 +5215,7 @@
       <c r="I19" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="99" t="s">
+      <c r="J19" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5252,7 +5247,7 @@
       <c r="I20" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="98" t="s">
+      <c r="J20" s="97" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5284,7 +5279,7 @@
       <c r="I21" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5316,7 +5311,7 @@
       <c r="I22" s="73">
         <v>5200</v>
       </c>
-      <c r="J22" s="98" t="s">
+      <c r="J22" s="97" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5337,10 +5332,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H23" s="79" t="s">
         <v>38</v>
@@ -5348,7 +5343,7 @@
       <c r="I23" s="73">
         <v>1</v>
       </c>
-      <c r="J23" s="98" t="s">
+      <c r="J23" s="97" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5369,10 +5364,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H24" s="79" t="s">
         <v>38</v>
@@ -5380,7 +5375,7 @@
       <c r="I24" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="97" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5401,10 +5396,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H25" s="79" t="s">
         <v>38</v>
@@ -5412,7 +5407,7 @@
       <c r="I25" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="97" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5433,10 +5428,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26" s="79" t="s">
         <v>38</v>
@@ -5444,7 +5439,7 @@
       <c r="I26" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="98" t="s">
+      <c r="J26" s="97" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5465,10 +5460,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H27" s="79" t="s">
         <v>38</v>
@@ -5476,7 +5471,7 @@
       <c r="I27" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="98" t="s">
+      <c r="J27" s="97" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5508,7 +5503,7 @@
       <c r="I28" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="98" t="s">
+      <c r="J28" s="97" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5529,10 +5524,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H29" s="79" t="s">
         <v>38</v>
@@ -5540,7 +5535,7 @@
       <c r="I29" s="81">
         <v>44196</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="97" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5561,10 +5556,10 @@
         <v>38</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H30" s="79" t="s">
         <v>38</v>
@@ -5572,7 +5567,7 @@
       <c r="I30" s="81">
         <v>43831</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="97" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5593,10 +5588,10 @@
         <v>38</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H31" s="79" t="s">
         <v>38</v>
@@ -5604,7 +5599,7 @@
       <c r="I31" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="98" t="s">
+      <c r="J31" s="97" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5625,10 +5620,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H32" s="79" t="s">
         <v>38</v>
@@ -5636,7 +5631,7 @@
       <c r="I32" s="73">
         <v>0</v>
       </c>
-      <c r="J32" s="98" t="s">
+      <c r="J32" s="97" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5657,10 +5652,10 @@
         <v>38</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H33" s="79" t="s">
         <v>38</v>
@@ -5668,7 +5663,7 @@
       <c r="I33" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="97" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5700,7 +5695,7 @@
       <c r="I34" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="99" t="s">
+      <c r="J34" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5732,7 +5727,7 @@
       <c r="I35" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="98" t="s">
+      <c r="J35" s="97" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5764,7 +5759,7 @@
       <c r="I36" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="98" t="s">
+      <c r="J36" s="97" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5781,8 +5776,8 @@
       <c r="D37" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="101" t="s">
-        <v>303</v>
+      <c r="E37" s="100" t="s">
+        <v>301</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>38</v>
@@ -5796,7 +5791,7 @@
       <c r="I37" s="82">
         <v>43874</v>
       </c>
-      <c r="J37" s="98" t="s">
+      <c r="J37" s="97" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5817,10 +5812,10 @@
         <v>38</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H38" s="79" t="s">
         <v>38</v>
@@ -5828,7 +5823,7 @@
       <c r="I38" s="82">
         <v>33187</v>
       </c>
-      <c r="J38" s="99" t="s">
+      <c r="J38" s="98" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5856,7 +5851,7 @@
       </c>
       <c r="H39" s="79"/>
       <c r="I39" s="82"/>
-      <c r="J39" s="99"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
@@ -5886,7 +5881,7 @@
       <c r="I40" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="98" t="s">
+      <c r="J40" s="97" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5907,16 +5902,16 @@
         <v>38</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H41" s="76"/>
       <c r="I41" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="98" t="s">
+      <c r="J41" s="97" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5948,7 +5943,7 @@
       <c r="I42" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="98" t="s">
+      <c r="J42" s="97" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5980,13 +5975,13 @@
       <c r="I43" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="99" t="s">
+      <c r="J43" s="98" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -5999,15 +5994,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="107" t="s">
+      <c r="G44" s="104"/>
+      <c r="H44" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" s="107" t="s">
         <v>298</v>
-      </c>
-      <c r="J44" s="108" t="s">
-        <v>299</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6044,7 +6039,7 @@
       <c r="I45" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="98" t="s">
+      <c r="J45" s="97" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6076,13 +6071,13 @@
       <c r="I46" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="99" t="s">
+      <c r="J46" s="98" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>105</v>
@@ -6108,7 +6103,7 @@
       <c r="I47" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="98" t="s">
+      <c r="J47" s="97" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6140,7 +6135,7 @@
       <c r="I48" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="98" t="s">
+      <c r="J48" s="97" t="s">
         <v>210</v>
       </c>
     </row>

--- a/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381728F-2226-4ECF-A986-9A575719FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA09525-758A-41E8-85C2-4D58543FD29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -985,7 +985,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,6 +1241,13 @@
     <font>
       <u/>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1759,7 +1766,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,6 +2089,21 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2528,7 +2550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4653,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5571,35 +5593,35 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="23" t="s">
+      <c r="E31" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="H31" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="73" t="s">
+      <c r="H31" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="115" t="s">
         <v>241</v>
       </c>
     </row>
